--- a/data/trans_orig/P15D$ingresado-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P15D$ingresado-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B5CEEC4-2B7F-44AF-8D6C-51ED34365FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{67E87222-892C-4654-AF1D-1492E8545340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{04577B4E-448C-4045-8F4C-81FA0865D63F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C4BC46CD-B310-4726-B0DA-4014A813E876}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="553">
-  <si>
-    <t>Población según consecuencia del último accidente en 2007</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="552">
+  <si>
+    <t>Población según el tipo de atención sanitaria recibida tras el último accidente (multirrespuesta) en 2007</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -509,7 +509,7 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población según consecuencia del último accidente en 2012</t>
+    <t>Población según el tipo de atención sanitaria recibida tras el último accidente (multirrespuesta) en 2012</t>
   </si>
   <si>
     <t>14,53%</t>
@@ -908,7 +908,7 @@
     <t>30,67%</t>
   </si>
   <si>
-    <t>Población según consecuencia del último accidente en 2016</t>
+    <t>Población según el tipo de atención sanitaria recibida tras el último accidente (multirrespuesta) en 2016</t>
   </si>
   <si>
     <t>5,83%</t>
@@ -1310,394 +1310,391 @@
     <t>19,45%</t>
   </si>
   <si>
-    <t>Población según consecuencia del último accidente en 2023</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
+    <t>Población según el tipo de atención sanitaria recibida tras el último accidente (multirrespuesta) en 2023</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
   </si>
   <si>
     <t>15,54%</t>
   </si>
   <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
   </si>
   <si>
     <t>19,12%</t>
   </si>
   <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
   </si>
   <si>
     <t>16,47%</t>
   </si>
   <si>
-    <t>68,77%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>56,04%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>62,98%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>64,83%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>59,11%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>56,61%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>59,62%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
   </si>
 </sst>
 </file>
@@ -2109,7 +2106,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B61A2270-C52F-435A-9708-E52FE47FAB10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D6E332D-8C84-417B-9E80-07EF062E6617}">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2746,7 +2743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7053360F-C6CC-498F-A7E6-D1E705AE6559}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E3C5ADE-05A8-49DA-ADF2-13DC07E94D3C}">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3383,7 +3380,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC03669B-3AD5-4B7B-BBAF-1B161BFCD846}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6AC939A-39F6-4C96-A20A-20CFF7CBF649}">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4020,7 +4017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D85DD17C-1907-412B-A987-54A1F4413A7C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B76E8F04-BC4A-4591-BB9A-9B2F80801AB4}">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4156,16 +4153,16 @@
         <v>437</v>
       </c>
       <c r="H5" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="I5" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="J5" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>439</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -4174,31 +4171,31 @@
         <v>28</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="I6" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -4207,31 +4204,31 @@
         <v>38</v>
       </c>
       <c r="C7" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="H7" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="I7" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -4242,31 +4239,31 @@
         <v>8</v>
       </c>
       <c r="C8" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="H8" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="I8" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="I8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>463</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -4275,31 +4272,31 @@
         <v>18</v>
       </c>
       <c r="C9" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="F9" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="H9" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="I9" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="J9" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>472</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -4308,31 +4305,31 @@
         <v>28</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="F10" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="I10" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>482</v>
-      </c>
       <c r="K10" s="7" t="s">
-        <v>483</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -4341,31 +4338,31 @@
         <v>38</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>340</v>
+        <v>480</v>
       </c>
       <c r="D11" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="I11" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>486</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -4376,31 +4373,31 @@
         <v>8</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>153</v>
+        <v>487</v>
       </c>
       <c r="D12" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="H12" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="I12" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="J12" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>495</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -4409,31 +4406,31 @@
         <v>18</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="F13" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="I13" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>503</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -4442,31 +4439,31 @@
         <v>28</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>53</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="I14" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="J14" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>510</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -4475,31 +4472,31 @@
         <v>38</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>417</v>
+        <v>511</v>
       </c>
       <c r="D15" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="G15" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="I15" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="J15" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="K15" s="7" t="s">
         <v>518</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -4510,31 +4507,31 @@
         <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="F16" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="H16" s="7" t="s">
+      <c r="I16" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>527</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -4543,31 +4540,31 @@
         <v>18</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="F17" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="I17" s="7" t="s">
         <v>534</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>536</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -4576,10 +4573,10 @@
         <v>28</v>
       </c>
       <c r="C18" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>538</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>539</v>
@@ -4615,25 +4612,25 @@
         <v>546</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="H19" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="I19" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="J19" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>551</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>552</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
